--- a/Uncle-Tay-House/doc/MAPPING.xlsx
+++ b/Uncle-Tay-House/doc/MAPPING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\_code-jm\python-games\Uncle-Tay-House\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98115EB8-8775-4CF3-87F7-57E0DD367910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6818F552-B7BD-44EA-A04C-8D985355F98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{7F69BA91-0C3E-455B-A90B-6EDC0B9C7453}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="246">
   <si>
     <t>/* 00 */</t>
   </si>
@@ -759,6 +759,21 @@
   </si>
   <si>
     <t>DARK STAIRS LEAD UP TO THE ATTIC</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>3 DOORS</t>
+  </si>
+  <si>
+    <t>IDX</t>
+  </si>
+  <si>
+    <t>TEXT</t>
   </si>
 </sst>
 </file>
@@ -1168,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AE441D-3A7F-4D07-8397-7A59763E0912}">
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1649,11 +1664,15 @@
       <c r="D36" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="F36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H36" s="4"/>
+      <c r="H36" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="I36" s="2" t="s">
         <v>65</v>
       </c>
@@ -2436,6 +2455,9 @@
       </c>
       <c r="C61" s="10" t="s">
         <v>24</v>
+      </c>
+      <c r="D61" t="s">
+        <v>243</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>24</v>
@@ -2620,6 +2642,12 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B69" t="s">
+        <v>242</v>
+      </c>
       <c r="C69" s="3" t="s">
         <v>0</v>
       </c>
@@ -2752,6 +2780,501 @@
       </c>
       <c r="K77" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C83" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>158</v>
+      </c>
+      <c r="E83" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B85" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>-1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>-1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87" t="s">
+        <v>165</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" t="s">
+        <v>167</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>30</v>
+      </c>
+      <c r="E88" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" t="s">
+        <v>169</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B90" t="s">
+        <v>171</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90">
+        <v>13</v>
+      </c>
+      <c r="E90" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B91" t="s">
+        <v>173</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91">
+        <v>15</v>
+      </c>
+      <c r="E91" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B92" t="s">
+        <v>174</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92">
+        <v>9</v>
+      </c>
+      <c r="E92" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <v>16</v>
+      </c>
+      <c r="E93" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94">
+        <v>22</v>
+      </c>
+      <c r="E94" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B95" t="s">
+        <v>180</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95">
+        <v>26</v>
+      </c>
+      <c r="E95" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B96" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96">
+        <v>25</v>
+      </c>
+      <c r="E96" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B97" t="s">
+        <v>184</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97">
+        <v>25</v>
+      </c>
+      <c r="E97" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98" t="s">
+        <v>186</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98">
+        <v>28</v>
+      </c>
+      <c r="E98" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B99" t="s">
+        <v>188</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99">
+        <v>8</v>
+      </c>
+      <c r="E99" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B100" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100">
+        <v>-1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B101" t="s">
+        <v>192</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101">
+        <v>19</v>
+      </c>
+      <c r="E101" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B102" t="s">
+        <v>194</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102">
+        <v>21</v>
+      </c>
+      <c r="E102" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B103" t="s">
+        <v>196</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103">
+        <v>27</v>
+      </c>
+      <c r="E103" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B104" t="s">
+        <v>198</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B105" t="s">
+        <v>200</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105">
+        <v>6</v>
+      </c>
+      <c r="E105" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B106" t="s">
+        <v>202</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106">
+        <v>7</v>
+      </c>
+      <c r="E106" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B107" t="s">
+        <v>204</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107">
+        <v>-1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B108" t="s">
+        <v>205</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108">
+        <v>12</v>
+      </c>
+      <c r="E108" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B109" t="s">
+        <v>206</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109">
+        <v>-1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B110" t="s">
+        <v>68</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110">
+        <v>-1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>61</v>
+      </c>
+      <c r="B111" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/Uncle-Tay-House/doc/MAPPING.xlsx
+++ b/Uncle-Tay-House/doc/MAPPING.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\_code-jm\python-games\Uncle-Tay-House\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\source\retro-games\Uncle-Tay-House\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6818F552-B7BD-44EA-A04C-8D985355F98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE248A5-6921-4AA3-BDB5-D64CE9A93D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{7F69BA91-0C3E-455B-A90B-6EDC0B9C7453}"/>
+    <workbookView xWindow="1245" yWindow="195" windowWidth="21165" windowHeight="14925" xr2:uid="{7F69BA91-0C3E-455B-A90B-6EDC0B9C7453}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,190 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="246">
-  <si>
-    <t>/* 00 */</t>
-  </si>
-  <si>
-    <t>/* 01 */</t>
-  </si>
-  <si>
-    <t>/* 02 */</t>
-  </si>
-  <si>
-    <t>/* 03 */</t>
-  </si>
-  <si>
-    <t>/* 04 */</t>
-  </si>
-  <si>
-    <t>/* 05 */</t>
-  </si>
-  <si>
-    <t>/* 06 */</t>
-  </si>
-  <si>
-    <t>/* 07 */</t>
-  </si>
-  <si>
-    <t>/* 08 */</t>
-  </si>
-  <si>
-    <t>/* 09 */</t>
-  </si>
-  <si>
-    <t>/* 10 */</t>
-  </si>
-  <si>
-    <t>/* 11 */</t>
-  </si>
-  <si>
-    <t>/* 12 */</t>
-  </si>
-  <si>
-    <t>/* 13 */</t>
-  </si>
-  <si>
-    <t>/* 14 */</t>
-  </si>
-  <si>
-    <t>/* 15 */</t>
-  </si>
-  <si>
-    <t>/* 16 */</t>
-  </si>
-  <si>
-    <t>/* 17 */</t>
-  </si>
-  <si>
-    <t>/* 18 */</t>
-  </si>
-  <si>
-    <t>/* 19 */</t>
-  </si>
-  <si>
-    <t>/* 20 */</t>
-  </si>
-  <si>
-    <t>/* 21 */</t>
-  </si>
-  <si>
-    <t>/* 22 */</t>
-  </si>
-  <si>
-    <t>/* 23 */</t>
-  </si>
-  <si>
-    <t>/* 24 */</t>
-  </si>
-  <si>
-    <t>/* 25 */</t>
-  </si>
-  <si>
-    <t>/* 26 */</t>
-  </si>
-  <si>
-    <t>/* 27 */</t>
-  </si>
-  <si>
-    <t>/* 28 */</t>
-  </si>
-  <si>
-    <t>/* 29 */</t>
-  </si>
-  <si>
-    <t>/* 30 */</t>
-  </si>
-  <si>
-    <t>/* 31 */</t>
-  </si>
-  <si>
-    <t>/* 32 */</t>
-  </si>
-  <si>
-    <t>/* 33 */</t>
-  </si>
-  <si>
-    <t>/* 34 */</t>
-  </si>
-  <si>
-    <t>/* 35 */</t>
-  </si>
-  <si>
-    <t>/* 36 */</t>
-  </si>
-  <si>
-    <t>/* 37 */</t>
-  </si>
-  <si>
-    <t>/* 38 */</t>
-  </si>
-  <si>
-    <t>/* 39 */</t>
-  </si>
-  <si>
-    <t>/* 40 */</t>
-  </si>
-  <si>
-    <t>/* 41 */</t>
-  </si>
-  <si>
-    <t>/* 42 */</t>
-  </si>
-  <si>
-    <t>/* 43 */</t>
-  </si>
-  <si>
-    <t>/* 44 */</t>
-  </si>
-  <si>
-    <t>/* 45 */</t>
-  </si>
-  <si>
-    <t>/* 46 */</t>
-  </si>
-  <si>
-    <t>/* 47 */</t>
-  </si>
-  <si>
-    <t>/* 48 */</t>
-  </si>
-  <si>
-    <t>/* 49 */</t>
-  </si>
-  <si>
-    <t>/* 50 */</t>
-  </si>
-  <si>
-    <t>/* 51 */</t>
-  </si>
-  <si>
-    <t>/* 52 */</t>
-  </si>
-  <si>
-    <t>/* 53 */</t>
-  </si>
-  <si>
-    <t>/* 54 */</t>
-  </si>
-  <si>
-    <t>/* 55 */</t>
-  </si>
-  <si>
-    <t>/* 56 */</t>
-  </si>
-  <si>
-    <t>/* 57 */</t>
-  </si>
-  <si>
-    <t>/* 58 */</t>
-  </si>
-  <si>
-    <t>/* 59 */</t>
-  </si>
-  <si>
-    <t>/* 60 */</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="274">
   <si>
     <t>AN OLD-FASHIONED FUSEBOX. THE FUSE MARKED 'ATTIC' IS MISSING.</t>
   </si>
@@ -774,6 +592,273 @@
   </si>
   <si>
     <t>TEXT</t>
+  </si>
+  <si>
+    <t>An old-fashioned fusebox. the fuse marked 'attic' is missing.</t>
+  </si>
+  <si>
+    <t>Tays house unlikely ever to be sold. tales of gutted stairwells and booby traps have spooked buyers...</t>
+  </si>
+  <si>
+    <t>Someone has been playing very rough with this toy</t>
+  </si>
+  <si>
+    <t>Old-fashioned electrical fuse</t>
+  </si>
+  <si>
+    <t>Tire jack for lifting heavy objects like cars</t>
+  </si>
+  <si>
+    <t>Uncle tays in all his sallow glory</t>
+  </si>
+  <si>
+    <t>Cord for bungee jumping</t>
+  </si>
+  <si>
+    <t>A small brass key</t>
+  </si>
+  <si>
+    <t>A child's toy (spinning top)</t>
+  </si>
+  <si>
+    <t>The writing is reversed. maybe there is a way to read it somewhere...</t>
+  </si>
+  <si>
+    <t>Supposedly dog food, though it appears to be made of plastic</t>
+  </si>
+  <si>
+    <t>Rubber gloves used for cleaning</t>
+  </si>
+  <si>
+    <t>A queen-sized boxspring</t>
+  </si>
+  <si>
+    <t>A back brace</t>
+  </si>
+  <si>
+    <t>Tays' strange inventions include booby-trapped doors and toys that open doors by remote control...</t>
+  </si>
+  <si>
+    <t>This can contains fine lubricating oil</t>
+  </si>
+  <si>
+    <t>Uncle tays' checkbook lists a balance of $220,000</t>
+  </si>
+  <si>
+    <t>This diamond's beauty stems from all the goddamned money it is worth</t>
+  </si>
+  <si>
+    <t>Loverboy's first album in vinyl, worth an incalculable sum</t>
+  </si>
+  <si>
+    <t>Pre-ipo shares of apollo computing have to be worth ... something</t>
+  </si>
+  <si>
+    <t>A thick wad of canadian notes</t>
+  </si>
+  <si>
+    <t>This old refrigerator's motor labors heavily</t>
+  </si>
+  <si>
+    <t>An overstuffed, dusty couch</t>
+  </si>
+  <si>
+    <t>A disgusting pile of soiled laundry</t>
+  </si>
+  <si>
+    <t>3 doors</t>
+  </si>
+  <si>
+    <t>(dummy)</t>
+  </si>
+  <si>
+    <t>A mirror in the wall</t>
+  </si>
+  <si>
+    <t>objId</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t>There is a locked door to the north</t>
+  </si>
+  <si>
+    <t>There is a locked door to the south</t>
+  </si>
+  <si>
+    <t>Stairs lead down to a cellar. Several steps have collapsed, making the staircase unusable</t>
+  </si>
+  <si>
+    <t>Stairs lead up. Several steps have collapsed, making the staircase unusable</t>
+  </si>
+  <si>
+    <t>Dark stairs lead up to the attic</t>
+  </si>
+  <si>
+    <t>A locked door to the WEST is labelled 'EXTREME DANGER'</t>
+  </si>
+  <si>
+    <t>Your uncle's doberman blocks a doorway to the north</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public static int </t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>NEWSPAPER</t>
+  </si>
+  <si>
+    <t>TEDDYBEAR</t>
+  </si>
+  <si>
+    <t>FUSE</t>
+  </si>
+  <si>
+    <t>JACK</t>
+  </si>
+  <si>
+    <t>PICTURE</t>
+  </si>
+  <si>
+    <t>BUNGEE</t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>GAINESBURGER</t>
+  </si>
+  <si>
+    <t>GLOVES</t>
+  </si>
+  <si>
+    <t>BOXSPRING</t>
+  </si>
+  <si>
+    <t>BRACE</t>
+  </si>
+  <si>
+    <t>MAGAZINE</t>
+  </si>
+  <si>
+    <t>OILCAN</t>
+  </si>
+  <si>
+    <t>CHECKBOOK</t>
+  </si>
+  <si>
+    <t>DIAMOND</t>
+  </si>
+  <si>
+    <t>LOVERBOY</t>
+  </si>
+  <si>
+    <t>INVESTMENT</t>
+  </si>
+  <si>
+    <t>LOONS</t>
+  </si>
+  <si>
+    <t>FRIDGE</t>
+  </si>
+  <si>
+    <t>COUCH</t>
+  </si>
+  <si>
+    <t>CLOTHES</t>
+  </si>
+  <si>
+    <t>DOOR</t>
+  </si>
+  <si>
+    <t>RAILING</t>
+  </si>
+  <si>
+    <t>FUSEBOX</t>
+  </si>
+  <si>
+    <t>{ get; } =</t>
+  </si>
+  <si>
+    <t>FOYER</t>
+  </si>
+  <si>
+    <t>SITTINGROOM</t>
+  </si>
+  <si>
+    <t>HALLWAY1</t>
+  </si>
+  <si>
+    <t>HALLWAY2</t>
+  </si>
+  <si>
+    <t>SMALLBEDROOM</t>
+  </si>
+  <si>
+    <t>DININGROOM</t>
+  </si>
+  <si>
+    <t>MASTERBEDROOM</t>
+  </si>
+  <si>
+    <t>GAMEROOM</t>
+  </si>
+  <si>
+    <t>CHILDSROOM</t>
+  </si>
+  <si>
+    <t>SECRETROOM</t>
+  </si>
+  <si>
+    <t>DANGEROUSHALL</t>
+  </si>
+  <si>
+    <t>CORNERBEDROOM</t>
+  </si>
+  <si>
+    <t>DUMBWAITER1</t>
+  </si>
+  <si>
+    <t>DUMBWAITER2</t>
+  </si>
+  <si>
+    <t>WORKROOM</t>
+  </si>
+  <si>
+    <t>STORAGEROOM</t>
+  </si>
+  <si>
+    <t>BOTTOMOFSTAIRS</t>
+  </si>
+  <si>
+    <t>MIDAIR</t>
+  </si>
+  <si>
+    <t>LEAVETHEHOUSE</t>
+  </si>
+  <si>
+    <t>exitDirection</t>
   </si>
 </sst>
 </file>
@@ -1183,2098 +1268,4361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AE441D-3A7F-4D07-8397-7A59763E0912}">
-  <dimension ref="A1:K111"/>
+  <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="3"/>
     <col min="9" max="9" width="25" customWidth="1"/>
     <col min="10" max="10" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="D20" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="D21" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="D22" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="D23" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="D24" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="D25" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="D26" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="D27" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="D28" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="D29" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="D30" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="D31" s="11">
         <v>12</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c r="F31">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="D32" s="11">
         <v>13</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>214</v>
+        <v>153</v>
       </c>
       <c r="F32">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="D33" s="11">
         <v>14</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c r="F33">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="D34" s="11">
         <v>15</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c r="F34">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="D35" s="11">
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C36" s="4" t="s">
-        <v>210</v>
+        <v>149</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="C37" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="10">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3">
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>158</v>
-      </c>
-      <c r="H37" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="3">
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>70</v>
-      </c>
-      <c r="J37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="3">
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
-      </c>
-      <c r="C38" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="10">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
-      </c>
-      <c r="E38" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="3">
         <v>1</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="3">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>72</v>
-      </c>
-      <c r="J38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" s="3">
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
-      </c>
-      <c r="C39" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" s="10">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
-      </c>
-      <c r="E39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="3">
         <v>2</v>
       </c>
       <c r="F39">
         <v>-1</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="3">
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>75</v>
-      </c>
-      <c r="J39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="3">
         <v>2</v>
       </c>
       <c r="K39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>163</v>
-      </c>
-      <c r="C40" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C40" s="10">
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>164</v>
-      </c>
-      <c r="E40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="3">
         <v>3</v>
       </c>
       <c r="F40">
         <v>-1</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="3">
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>78</v>
-      </c>
-      <c r="J40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="3">
         <v>3</v>
       </c>
       <c r="K40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
-      </c>
-      <c r="C41" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C41" s="10">
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>166</v>
-      </c>
-      <c r="E41" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="3">
         <v>4</v>
       </c>
       <c r="F41">
         <v>10</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="3">
         <v>4</v>
       </c>
       <c r="I41" t="s">
-        <v>81</v>
-      </c>
-      <c r="J41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="3">
         <v>4</v>
       </c>
       <c r="K41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
-      </c>
-      <c r="C42" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" s="10">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
-      </c>
-      <c r="E42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="3">
         <v>5</v>
       </c>
       <c r="F42">
         <v>30</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="3">
         <v>5</v>
       </c>
       <c r="I42" t="s">
-        <v>81</v>
-      </c>
-      <c r="J42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="3">
         <v>5</v>
       </c>
       <c r="K42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>169</v>
-      </c>
-      <c r="C43" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" s="10">
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>170</v>
-      </c>
-      <c r="E43" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="3">
         <v>6</v>
       </c>
       <c r="F43">
         <v>10</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="3">
         <v>6</v>
       </c>
       <c r="I43" t="s">
-        <v>86</v>
-      </c>
-      <c r="J43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" s="3">
         <v>6</v>
       </c>
       <c r="K43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>171</v>
-      </c>
-      <c r="C44" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C44" s="10">
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>172</v>
-      </c>
-      <c r="E44" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="3">
         <v>7</v>
       </c>
       <c r="F44">
         <v>13</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="3">
         <v>7</v>
       </c>
       <c r="I44" t="s">
-        <v>89</v>
-      </c>
-      <c r="J44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J44" s="3">
         <v>7</v>
       </c>
       <c r="K44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>173</v>
-      </c>
-      <c r="C45" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C45" s="10">
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>217</v>
-      </c>
-      <c r="E45" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" s="3">
         <v>8</v>
       </c>
       <c r="F45">
         <v>15</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="3">
         <v>8</v>
       </c>
       <c r="I45" t="s">
-        <v>92</v>
-      </c>
-      <c r="J45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J45" s="3">
         <v>8</v>
       </c>
       <c r="K45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>174</v>
-      </c>
-      <c r="C46" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C46" s="10">
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>175</v>
-      </c>
-      <c r="E46" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="3">
         <v>9</v>
       </c>
       <c r="F46">
         <v>9</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="3">
         <v>9</v>
       </c>
       <c r="I46" t="s">
-        <v>95</v>
-      </c>
-      <c r="J46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J46" s="3">
         <v>9</v>
       </c>
       <c r="K46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>176</v>
-      </c>
-      <c r="C47" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" s="10">
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>177</v>
-      </c>
-      <c r="E47" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="3">
         <v>10</v>
       </c>
       <c r="F47">
         <v>16</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="3">
         <v>10</v>
       </c>
       <c r="I47" t="s">
-        <v>98</v>
-      </c>
-      <c r="J47" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" s="3">
         <v>10</v>
       </c>
       <c r="K47" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
-      </c>
-      <c r="C48" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C48" s="10">
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>179</v>
-      </c>
-      <c r="E48" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="3">
         <v>11</v>
       </c>
       <c r="F48">
         <v>22</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="3">
         <v>11</v>
       </c>
       <c r="I48" t="s">
-        <v>101</v>
-      </c>
-      <c r="J48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J48" s="3">
         <v>11</v>
       </c>
       <c r="K48" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>180</v>
-      </c>
-      <c r="C49" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49" s="10">
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>181</v>
-      </c>
-      <c r="E49" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="3">
         <v>12</v>
       </c>
       <c r="F49">
         <v>26</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="3">
         <v>12</v>
       </c>
       <c r="I49" t="s">
-        <v>104</v>
-      </c>
-      <c r="J49" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J49" s="3">
         <v>12</v>
       </c>
       <c r="K49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>182</v>
-      </c>
-      <c r="C50" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C50" s="10">
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>183</v>
-      </c>
-      <c r="E50" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="3">
         <v>13</v>
       </c>
       <c r="F50">
         <v>25</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="3">
         <v>13</v>
       </c>
       <c r="I50" t="s">
-        <v>107</v>
-      </c>
-      <c r="J50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J50" s="3">
         <v>13</v>
       </c>
       <c r="K50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
         <v>47</v>
       </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>47</v>
+      </c>
       <c r="B51" t="s">
-        <v>184</v>
-      </c>
-      <c r="C51" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C51" s="10">
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>185</v>
-      </c>
-      <c r="E51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E51" s="3">
         <v>14</v>
       </c>
       <c r="F51">
         <v>25</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="3">
         <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>81</v>
-      </c>
-      <c r="J51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="3">
         <v>14</v>
       </c>
       <c r="K51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>186</v>
-      </c>
-      <c r="C52" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C52" s="10">
         <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>187</v>
-      </c>
-      <c r="E52" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" s="3">
         <v>15</v>
       </c>
       <c r="F52">
         <v>28</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="3">
         <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>112</v>
-      </c>
-      <c r="J52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J52" s="3">
         <v>15</v>
       </c>
       <c r="K52" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C53" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" s="10">
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>189</v>
-      </c>
-      <c r="E53" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" s="3">
         <v>16</v>
       </c>
       <c r="F53">
         <v>8</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="3">
         <v>16</v>
       </c>
       <c r="I53" t="s">
-        <v>115</v>
-      </c>
-      <c r="J53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J53" s="3">
         <v>16</v>
       </c>
       <c r="K53" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>190</v>
-      </c>
-      <c r="C54" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C54" s="10">
         <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>191</v>
-      </c>
-      <c r="E54" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" s="3">
         <v>17</v>
       </c>
       <c r="F54">
         <v>-1</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="3">
         <v>17</v>
       </c>
       <c r="I54" t="s">
-        <v>81</v>
-      </c>
-      <c r="J54" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" s="3">
         <v>17</v>
       </c>
       <c r="K54" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>192</v>
-      </c>
-      <c r="C55" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C55" s="10">
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>193</v>
-      </c>
-      <c r="E55" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" s="3">
         <v>18</v>
       </c>
       <c r="F55">
         <v>19</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="3">
         <v>18</v>
       </c>
       <c r="I55" t="s">
-        <v>120</v>
-      </c>
-      <c r="J55" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J55" s="3">
         <v>18</v>
       </c>
       <c r="K55" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>194</v>
-      </c>
-      <c r="C56" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C56" s="10">
         <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>195</v>
-      </c>
-      <c r="E56" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" s="3">
         <v>19</v>
       </c>
       <c r="F56">
         <v>21</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H56" s="3">
         <v>19</v>
       </c>
       <c r="I56" t="s">
-        <v>123</v>
-      </c>
-      <c r="J56" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J56" s="3">
         <v>19</v>
       </c>
       <c r="K56" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>196</v>
-      </c>
-      <c r="C57" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C57" s="10">
         <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>197</v>
-      </c>
-      <c r="E57" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57" s="3">
         <v>20</v>
       </c>
       <c r="F57">
         <v>27</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H57" s="3">
         <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>126</v>
-      </c>
-      <c r="J57" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J57" s="3">
         <v>20</v>
       </c>
       <c r="K57" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>198</v>
-      </c>
-      <c r="C58" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" s="10">
         <v>21</v>
       </c>
       <c r="D58" t="s">
-        <v>199</v>
-      </c>
-      <c r="E58" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" s="3">
         <v>21</v>
       </c>
       <c r="F58">
         <v>2</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="3">
         <v>21</v>
       </c>
       <c r="I58" t="s">
-        <v>129</v>
-      </c>
-      <c r="J58" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J58" s="3">
         <v>21</v>
       </c>
       <c r="K58" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>200</v>
-      </c>
-      <c r="C59" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C59" s="10">
         <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>201</v>
-      </c>
-      <c r="E59" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59" s="3">
         <v>22</v>
       </c>
       <c r="F59">
         <v>6</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="H59" s="3">
         <v>22</v>
       </c>
       <c r="I59" t="s">
-        <v>89</v>
-      </c>
-      <c r="J59" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J59" s="3">
         <v>22</v>
       </c>
       <c r="K59" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>202</v>
-      </c>
-      <c r="C60" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C60" s="10">
         <v>23</v>
       </c>
       <c r="D60" t="s">
-        <v>203</v>
-      </c>
-      <c r="E60" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60" s="3">
         <v>23</v>
       </c>
       <c r="F60">
         <v>7</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H60" s="3">
         <v>23</v>
       </c>
       <c r="I60" t="s">
-        <v>134</v>
-      </c>
-      <c r="J60" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J60" s="3">
         <v>23</v>
       </c>
       <c r="K60" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>204</v>
-      </c>
-      <c r="C61" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C61" s="10">
         <v>24</v>
       </c>
       <c r="D61" t="s">
-        <v>243</v>
-      </c>
-      <c r="E61" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61" s="3">
         <v>24</v>
       </c>
       <c r="F61">
         <v>-1</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H61" s="3">
         <v>24</v>
       </c>
       <c r="I61" t="s">
-        <v>134</v>
-      </c>
-      <c r="J61" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J61" s="3">
         <v>24</v>
       </c>
       <c r="K61" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>205</v>
-      </c>
-      <c r="C62" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C62" s="10">
         <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>238</v>
-      </c>
-      <c r="E62" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" s="3">
         <v>25</v>
       </c>
       <c r="F62">
         <v>12</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H62" s="3">
         <v>25</v>
       </c>
       <c r="I62" t="s">
-        <v>138</v>
-      </c>
-      <c r="J62" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J62" s="3">
         <v>25</v>
       </c>
       <c r="K62" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>206</v>
-      </c>
-      <c r="C63" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="10">
         <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>239</v>
-      </c>
-      <c r="E63" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E63" s="3">
         <v>26</v>
       </c>
       <c r="F63">
         <v>-1</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H63" s="3">
         <v>26</v>
       </c>
       <c r="I63" t="s">
-        <v>141</v>
-      </c>
-      <c r="J63" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J63" s="3">
         <v>26</v>
       </c>
       <c r="K63" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C64" s="10">
         <v>27</v>
       </c>
       <c r="D64" t="s">
-        <v>61</v>
-      </c>
-      <c r="E64" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
         <v>27</v>
       </c>
       <c r="F64">
         <v>-1</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="H64" s="3">
         <v>27</v>
       </c>
       <c r="I64" t="s">
-        <v>144</v>
-      </c>
-      <c r="J64" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J64" s="3">
         <v>27</v>
       </c>
       <c r="K64" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>218</v>
-      </c>
-      <c r="H65" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H65" s="3">
         <v>28</v>
       </c>
       <c r="I65" t="s">
-        <v>147</v>
-      </c>
-      <c r="J65" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J65" s="3">
         <v>28</v>
       </c>
       <c r="K65" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H66" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H66" s="3">
         <v>29</v>
       </c>
       <c r="I66" t="s">
-        <v>150</v>
-      </c>
-      <c r="J66" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J66" s="3">
         <v>29</v>
       </c>
       <c r="K66" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H67" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H67" s="3">
         <v>30</v>
       </c>
       <c r="I67" t="s">
-        <v>153</v>
-      </c>
-      <c r="J67" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J67" s="3">
         <v>30</v>
       </c>
       <c r="K67" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
+        <v>213</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="D68" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H68" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H68" s="3">
         <v>31</v>
       </c>
       <c r="I68" t="s">
-        <v>64</v>
-      </c>
-      <c r="J68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J68" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="B69" t="s">
-        <v>242</v>
-      </c>
-      <c r="C69" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" s="3">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>5</v>
       </c>
       <c r="B70" s="3">
         <v>6</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="3">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="K70" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>8</v>
       </c>
       <c r="B71" s="3">
         <v>6</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="3">
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="K71" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>2</v>
       </c>
       <c r="B72" s="3">
         <v>6</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="3">
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="K72" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>29</v>
       </c>
       <c r="B73" s="3">
         <v>5</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="3">
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="K73" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>12</v>
       </c>
       <c r="B74" s="3">
         <v>5</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="3">
         <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="K74" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>17</v>
       </c>
       <c r="B75" s="3">
         <v>4</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="3">
         <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c r="K75" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>17</v>
       </c>
       <c r="B76" s="3">
         <v>1</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="3">
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="K76" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="K77" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>67</v>
+        <v>183</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C83" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C83" s="10">
         <v>0</v>
       </c>
-      <c r="D83" t="s">
-        <v>158</v>
+      <c r="D83" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="E83" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>34</v>
       </c>
       <c r="B84" t="s">
-        <v>159</v>
-      </c>
-      <c r="C84" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84" s="10">
         <v>1</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="3">
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>35</v>
       </c>
       <c r="B85" t="s">
-        <v>161</v>
-      </c>
-      <c r="C85" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" s="10">
         <v>2</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="3">
         <v>-1</v>
       </c>
       <c r="E85" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>36</v>
       </c>
       <c r="B86" t="s">
-        <v>163</v>
-      </c>
-      <c r="C86" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" s="10">
         <v>3</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="3">
         <v>-1</v>
       </c>
       <c r="E86" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <v>37</v>
       </c>
       <c r="B87" t="s">
-        <v>165</v>
-      </c>
-      <c r="C87" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" s="10">
         <v>4</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="3">
         <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <v>38</v>
       </c>
       <c r="B88" t="s">
-        <v>167</v>
-      </c>
-      <c r="C88" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C88" s="10">
         <v>5</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="3">
         <v>30</v>
       </c>
       <c r="E88" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <v>39</v>
       </c>
       <c r="B89" t="s">
-        <v>169</v>
-      </c>
-      <c r="C89" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" s="10">
         <v>6</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="3">
         <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <v>40</v>
       </c>
       <c r="B90" t="s">
-        <v>171</v>
-      </c>
-      <c r="C90" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" s="10">
         <v>7</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="3">
         <v>13</v>
       </c>
       <c r="E90" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <v>41</v>
       </c>
       <c r="B91" t="s">
-        <v>173</v>
-      </c>
-      <c r="C91" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C91" s="10">
         <v>8</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="3">
         <v>15</v>
       </c>
       <c r="E91" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <v>42</v>
       </c>
       <c r="B92" t="s">
-        <v>174</v>
-      </c>
-      <c r="C92" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C92" s="10">
         <v>9</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="3">
         <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <v>43</v>
       </c>
       <c r="B93" t="s">
-        <v>176</v>
-      </c>
-      <c r="C93" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="10">
         <v>10</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="3">
         <v>16</v>
       </c>
       <c r="E93" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>44</v>
+      </c>
+      <c r="B94" t="s">
+        <v>117</v>
+      </c>
+      <c r="C94" s="10">
+        <v>11</v>
+      </c>
+      <c r="D94" s="3">
+        <v>22</v>
+      </c>
+      <c r="E94" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>45</v>
+      </c>
+      <c r="B95" t="s">
+        <v>119</v>
+      </c>
+      <c r="C95" s="10">
+        <v>12</v>
+      </c>
+      <c r="D95" s="3">
+        <v>26</v>
+      </c>
+      <c r="E95" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>46</v>
+      </c>
+      <c r="B96" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96" s="10">
+        <v>13</v>
+      </c>
+      <c r="D96" s="3">
+        <v>25</v>
+      </c>
+      <c r="E96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>47</v>
+      </c>
+      <c r="B97" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" s="10">
+        <v>14</v>
+      </c>
+      <c r="D97" s="3">
+        <v>25</v>
+      </c>
+      <c r="E97" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>48</v>
+      </c>
+      <c r="B98" t="s">
+        <v>125</v>
+      </c>
+      <c r="C98" s="10">
+        <v>15</v>
+      </c>
+      <c r="D98" s="3">
+        <v>28</v>
+      </c>
+      <c r="E98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>49</v>
+      </c>
+      <c r="B99" t="s">
+        <v>127</v>
+      </c>
+      <c r="C99" s="10">
+        <v>16</v>
+      </c>
+      <c r="D99" s="3">
+        <v>8</v>
+      </c>
+      <c r="E99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>50</v>
+      </c>
+      <c r="B100" t="s">
+        <v>129</v>
+      </c>
+      <c r="C100" s="10">
+        <v>17</v>
+      </c>
+      <c r="D100" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>51</v>
+      </c>
+      <c r="B101" t="s">
+        <v>131</v>
+      </c>
+      <c r="C101" s="10">
+        <v>18</v>
+      </c>
+      <c r="D101" s="3">
+        <v>19</v>
+      </c>
+      <c r="E101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>52</v>
+      </c>
+      <c r="B102" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" s="10">
+        <v>19</v>
+      </c>
+      <c r="D102" s="3">
+        <v>21</v>
+      </c>
+      <c r="E102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>53</v>
+      </c>
+      <c r="B103" t="s">
+        <v>135</v>
+      </c>
+      <c r="C103" s="10">
+        <v>20</v>
+      </c>
+      <c r="D103" s="3">
+        <v>27</v>
+      </c>
+      <c r="E103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>54</v>
+      </c>
+      <c r="B104" t="s">
+        <v>137</v>
+      </c>
+      <c r="C104" s="10">
+        <v>21</v>
+      </c>
+      <c r="D104" s="3">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>55</v>
+      </c>
+      <c r="B105" t="s">
+        <v>139</v>
+      </c>
+      <c r="C105" s="10">
+        <v>22</v>
+      </c>
+      <c r="D105" s="3">
+        <v>6</v>
+      </c>
+      <c r="E105" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>56</v>
+      </c>
+      <c r="B106" t="s">
+        <v>141</v>
+      </c>
+      <c r="C106" s="10">
+        <v>23</v>
+      </c>
+      <c r="D106" s="3">
+        <v>7</v>
+      </c>
+      <c r="E106" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>57</v>
+      </c>
+      <c r="B107" t="s">
+        <v>143</v>
+      </c>
+      <c r="C107" s="10">
+        <v>24</v>
+      </c>
+      <c r="D107" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>58</v>
+      </c>
+      <c r="B108" t="s">
+        <v>144</v>
+      </c>
+      <c r="C108" s="10">
+        <v>25</v>
+      </c>
+      <c r="D108" s="3">
+        <v>12</v>
+      </c>
+      <c r="E108" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B94" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>59</v>
+      </c>
+      <c r="B109" t="s">
+        <v>145</v>
+      </c>
+      <c r="C109" s="10">
+        <v>26</v>
+      </c>
+      <c r="D109" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E109" t="s">
         <v>178</v>
       </c>
-      <c r="C94" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D94">
-        <v>22</v>
-      </c>
-      <c r="E94" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B95" t="s">
-        <v>180</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95">
-        <v>26</v>
-      </c>
-      <c r="E95" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B96" t="s">
-        <v>182</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96">
-        <v>25</v>
-      </c>
-      <c r="E96" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B97" t="s">
-        <v>184</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D97">
-        <v>25</v>
-      </c>
-      <c r="E97" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B98" t="s">
-        <v>186</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98">
-        <v>28</v>
-      </c>
-      <c r="E98" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B99" t="s">
-        <v>188</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D99">
-        <v>8</v>
-      </c>
-      <c r="E99" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B100" t="s">
-        <v>190</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D100">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>60</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="10">
+        <v>27</v>
+      </c>
+      <c r="D110" s="3">
         <v>-1</v>
       </c>
-      <c r="E100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B101" t="s">
-        <v>192</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D101">
-        <v>19</v>
-      </c>
-      <c r="E101" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B102" t="s">
-        <v>194</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D102">
-        <v>21</v>
-      </c>
-      <c r="E102" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B103" t="s">
-        <v>196</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D103">
-        <v>27</v>
-      </c>
-      <c r="E103" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B104" t="s">
-        <v>198</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D104">
-        <v>2</v>
-      </c>
-      <c r="E104" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B105" t="s">
-        <v>200</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D105">
-        <v>6</v>
-      </c>
-      <c r="E105" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B106" t="s">
-        <v>202</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D106">
-        <v>7</v>
-      </c>
-      <c r="E106" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B107" t="s">
-        <v>204</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D107">
-        <v>-1</v>
-      </c>
-      <c r="E107" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B108" t="s">
-        <v>205</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D108">
-        <v>12</v>
-      </c>
-      <c r="E108" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B109" t="s">
-        <v>206</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D109">
-        <v>-1</v>
-      </c>
-      <c r="E109" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B110" t="s">
-        <v>68</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D110">
-        <v>-1</v>
-      </c>
       <c r="E110" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>61</v>
       </c>
       <c r="B111" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="10">
+        <v>0</v>
+      </c>
+      <c r="B114" s="3">
+        <v>-99</v>
+      </c>
+      <c r="C114" s="3">
+        <v>0</v>
+      </c>
+      <c r="D114" t="s">
+        <v>210</v>
+      </c>
+      <c r="E114" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="10">
+        <v>1</v>
+      </c>
+      <c r="B115" s="3">
+        <v>1</v>
+      </c>
+      <c r="C115" s="3">
+        <v>34</v>
+      </c>
+      <c r="D115" t="s">
+        <v>98</v>
+      </c>
+      <c r="E115" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="10">
+        <v>2</v>
+      </c>
+      <c r="B116" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C116" s="3">
+        <v>35</v>
+      </c>
+      <c r="D116" t="s">
+        <v>100</v>
+      </c>
+      <c r="E116" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="10">
+        <v>3</v>
+      </c>
+      <c r="B117" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C117" s="3">
+        <v>36</v>
+      </c>
+      <c r="D117" t="s">
+        <v>102</v>
+      </c>
+      <c r="E117" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="10">
+        <v>4</v>
+      </c>
+      <c r="B118" s="3">
+        <v>10</v>
+      </c>
+      <c r="C118" s="3">
+        <v>37</v>
+      </c>
+      <c r="D118" t="s">
+        <v>104</v>
+      </c>
+      <c r="E118" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="10">
+        <v>5</v>
+      </c>
+      <c r="B119" s="3">
+        <v>30</v>
+      </c>
+      <c r="C119" s="3">
+        <v>38</v>
+      </c>
+      <c r="D119" t="s">
+        <v>106</v>
+      </c>
+      <c r="E119" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="10">
+        <v>6</v>
+      </c>
+      <c r="B120" s="3">
+        <v>10</v>
+      </c>
+      <c r="C120" s="3">
+        <v>39</v>
+      </c>
+      <c r="D120" t="s">
+        <v>108</v>
+      </c>
+      <c r="E120" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="10">
+        <v>7</v>
+      </c>
+      <c r="B121" s="3">
+        <v>13</v>
+      </c>
+      <c r="C121" s="3">
+        <v>40</v>
+      </c>
+      <c r="D121" t="s">
+        <v>110</v>
+      </c>
+      <c r="E121" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="10">
+        <v>8</v>
+      </c>
+      <c r="B122" s="3">
+        <v>15</v>
+      </c>
+      <c r="C122" s="3">
+        <v>41</v>
+      </c>
+      <c r="D122" t="s">
+        <v>112</v>
+      </c>
+      <c r="E122" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="10">
+        <v>9</v>
+      </c>
+      <c r="B123" s="3">
+        <v>9</v>
+      </c>
+      <c r="C123" s="3">
+        <v>42</v>
+      </c>
+      <c r="D123" t="s">
+        <v>113</v>
+      </c>
+      <c r="E123" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="10">
+        <v>10</v>
+      </c>
+      <c r="B124" s="3">
+        <v>16</v>
+      </c>
+      <c r="C124" s="3">
+        <v>43</v>
+      </c>
+      <c r="D124" t="s">
+        <v>115</v>
+      </c>
+      <c r="E124" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="10">
+        <v>11</v>
+      </c>
+      <c r="B125" s="3">
+        <v>22</v>
+      </c>
+      <c r="C125" s="3">
+        <v>44</v>
+      </c>
+      <c r="D125" t="s">
+        <v>117</v>
+      </c>
+      <c r="E125" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="10">
+        <v>12</v>
+      </c>
+      <c r="B126" s="3">
+        <v>26</v>
+      </c>
+      <c r="C126" s="3">
+        <v>45</v>
+      </c>
+      <c r="D126" t="s">
+        <v>119</v>
+      </c>
+      <c r="E126" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="10">
+        <v>13</v>
+      </c>
+      <c r="B127" s="3">
+        <v>25</v>
+      </c>
+      <c r="C127" s="3">
+        <v>46</v>
+      </c>
+      <c r="D127" t="s">
+        <v>121</v>
+      </c>
+      <c r="E127" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="10">
+        <v>14</v>
+      </c>
+      <c r="B128" s="3">
+        <v>25</v>
+      </c>
+      <c r="C128" s="3">
+        <v>47</v>
+      </c>
+      <c r="D128" t="s">
+        <v>123</v>
+      </c>
+      <c r="E128" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="10">
+        <v>15</v>
+      </c>
+      <c r="B129" s="3">
+        <v>28</v>
+      </c>
+      <c r="C129" s="3">
+        <v>48</v>
+      </c>
+      <c r="D129" t="s">
+        <v>125</v>
+      </c>
+      <c r="E129" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="10">
+        <v>16</v>
+      </c>
+      <c r="B130" s="3">
+        <v>8</v>
+      </c>
+      <c r="C130" s="3">
+        <v>49</v>
+      </c>
+      <c r="D130" t="s">
+        <v>127</v>
+      </c>
+      <c r="E130" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="10">
+        <v>17</v>
+      </c>
+      <c r="B131" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C131" s="3">
+        <v>50</v>
+      </c>
+      <c r="D131" t="s">
+        <v>129</v>
+      </c>
+      <c r="E131" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="10">
+        <v>18</v>
+      </c>
+      <c r="B132" s="3">
+        <v>19</v>
+      </c>
+      <c r="C132" s="3">
+        <v>51</v>
+      </c>
+      <c r="D132" t="s">
+        <v>131</v>
+      </c>
+      <c r="E132" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="10">
+        <v>19</v>
+      </c>
+      <c r="B133" s="3">
+        <v>21</v>
+      </c>
+      <c r="C133" s="3">
+        <v>52</v>
+      </c>
+      <c r="D133" t="s">
+        <v>133</v>
+      </c>
+      <c r="E133" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="10">
+        <v>20</v>
+      </c>
+      <c r="B134" s="3">
+        <v>27</v>
+      </c>
+      <c r="C134" s="3">
+        <v>53</v>
+      </c>
+      <c r="D134" t="s">
+        <v>135</v>
+      </c>
+      <c r="E134" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="10">
+        <v>21</v>
+      </c>
+      <c r="B135" s="3">
+        <v>2</v>
+      </c>
+      <c r="C135" s="3">
+        <v>54</v>
+      </c>
+      <c r="D135" t="s">
+        <v>137</v>
+      </c>
+      <c r="E135" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="10">
+        <v>22</v>
+      </c>
+      <c r="B136" s="3">
+        <v>6</v>
+      </c>
+      <c r="C136" s="3">
+        <v>55</v>
+      </c>
+      <c r="D136" t="s">
+        <v>139</v>
+      </c>
+      <c r="E136" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="10">
+        <v>23</v>
+      </c>
+      <c r="B137" s="3">
+        <v>7</v>
+      </c>
+      <c r="C137" s="3">
+        <v>56</v>
+      </c>
+      <c r="D137" t="s">
+        <v>141</v>
+      </c>
+      <c r="E137" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="10">
+        <v>24</v>
+      </c>
+      <c r="B138" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C138" s="3">
+        <v>57</v>
+      </c>
+      <c r="D138" t="s">
+        <v>143</v>
+      </c>
+      <c r="E138" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="10">
+        <v>25</v>
+      </c>
+      <c r="B139" s="3">
+        <v>12</v>
+      </c>
+      <c r="C139" s="3">
+        <v>58</v>
+      </c>
+      <c r="D139" t="s">
+        <v>144</v>
+      </c>
+      <c r="E139" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="10">
+        <v>26</v>
+      </c>
+      <c r="B140" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C140" s="3">
+        <v>59</v>
+      </c>
+      <c r="D140" t="s">
+        <v>145</v>
+      </c>
+      <c r="E140" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="10">
+        <v>27</v>
+      </c>
+      <c r="B141" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C141" s="3">
+        <v>60</v>
+      </c>
+      <c r="D141" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>28</v>
+      </c>
+      <c r="B142" s="3">
+        <v>22</v>
+      </c>
+      <c r="C142" s="3">
+        <v>61</v>
+      </c>
+      <c r="D142" t="s">
+        <v>157</v>
+      </c>
+      <c r="E142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A3050B-F2D8-4C42-A5DB-C6864C8AF556}">
+  <dimension ref="A2:E107"/>
+  <sheetViews>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" t="str">
+        <f>"new ExtDesc { id = "&amp;A3&amp;", location = "&amp;B3&amp;", direction = "&amp;C3&amp;", description = '"&amp;D3&amp;"' },"</f>
+        <v>new ExtDesc { id = 1, location = 5, direction = 6, description = 'There is a locked door to the north' },</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>218</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E9" si="0">"new ExtDesc { id = "&amp;A4&amp;", location = "&amp;B4&amp;", direction = "&amp;C4&amp;", description = '"&amp;D4&amp;"' },"</f>
+        <v>new ExtDesc { id = 2, location = 8, direction = 6, description = 'There is a locked door to the south' },</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>new ExtDesc { id = 3, location = 2, direction = 6, description = 'Stairs lead down to a cellar. Several steps have collapsed, making the staircase unusable' },</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>new ExtDesc { id = 4, location = 29, direction = 5, description = 'Stairs lead up. Several steps have collapsed, making the staircase unusable' },</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>new ExtDesc { id = 5, location = 12, direction = 5, description = 'Dark stairs lead up to the attic' },</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>new ExtDesc { id = 6, location = 17, direction = 4, description = 'A locked door to the WEST is labelled 'EXTREME DANGER'' },</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>new ExtDesc { id = 7, location = 17, direction = 1, description = 'Your uncle's doberman blocks a doorway to the north' },</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="7">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="7">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" s="7">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" s="7">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="7">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>225</v>
+      </c>
+      <c r="D23" s="7">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="7">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" s="7">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D26" s="8">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="8">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D28" s="8">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" s="8">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>225</v>
+      </c>
+      <c r="D30" s="8">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>225</v>
+      </c>
+      <c r="D31" s="8">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>224</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D32" s="8">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>224</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>225</v>
+      </c>
+      <c r="D33" s="8">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>224</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" s="8">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>224</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>225</v>
+      </c>
+      <c r="D35" s="8">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>224</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D36" s="8">
+        <v>23</v>
+      </c>
+      <c r="E36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>225</v>
+      </c>
+      <c r="D37" s="8">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>224</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" t="s">
+        <v>225</v>
+      </c>
+      <c r="D38" s="8">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>224</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" s="8">
+        <v>26</v>
+      </c>
+      <c r="E39" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>224</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" s="8">
+        <v>27</v>
+      </c>
+      <c r="E40" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>224</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>225</v>
+      </c>
+      <c r="D41" s="8">
+        <v>28</v>
+      </c>
+      <c r="E41" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>224</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>225</v>
+      </c>
+      <c r="D42" s="8">
+        <v>29</v>
+      </c>
+      <c r="E42" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>224</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>225</v>
+      </c>
+      <c r="D43" s="8">
+        <v>30</v>
+      </c>
+      <c r="E43" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>224</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" s="5">
+        <v>31</v>
+      </c>
+      <c r="E44" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>224</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
+        <v>225</v>
+      </c>
+      <c r="D45" s="5">
+        <v>32</v>
+      </c>
+      <c r="E45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>224</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>225</v>
+      </c>
+      <c r="D46" s="5">
+        <v>33</v>
+      </c>
+      <c r="E46" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>224</v>
+      </c>
+      <c r="B48" t="s">
+        <v>227</v>
+      </c>
+      <c r="C48" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" s="3">
+        <v>34</v>
+      </c>
+      <c r="E48" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>224</v>
+      </c>
+      <c r="B49" t="s">
+        <v>228</v>
+      </c>
+      <c r="C49" t="s">
+        <v>225</v>
+      </c>
+      <c r="D49" s="3">
+        <v>35</v>
+      </c>
+      <c r="E49" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>224</v>
+      </c>
+      <c r="B50" t="s">
+        <v>229</v>
+      </c>
+      <c r="C50" t="s">
+        <v>225</v>
+      </c>
+      <c r="D50" s="3">
+        <v>36</v>
+      </c>
+      <c r="E50" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>224</v>
+      </c>
+      <c r="B51" t="s">
+        <v>230</v>
+      </c>
+      <c r="C51" t="s">
+        <v>225</v>
+      </c>
+      <c r="D51" s="3">
+        <v>37</v>
+      </c>
+      <c r="E51" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>224</v>
+      </c>
+      <c r="B52" t="s">
+        <v>231</v>
+      </c>
+      <c r="C52" t="s">
+        <v>225</v>
+      </c>
+      <c r="D52" s="3">
+        <v>38</v>
+      </c>
+      <c r="E52" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>224</v>
+      </c>
+      <c r="B53" t="s">
+        <v>232</v>
+      </c>
+      <c r="C53" t="s">
+        <v>225</v>
+      </c>
+      <c r="D53" s="3">
+        <v>39</v>
+      </c>
+      <c r="E53" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>224</v>
+      </c>
+      <c r="B54" t="s">
+        <v>233</v>
+      </c>
+      <c r="C54" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" s="3">
+        <v>40</v>
+      </c>
+      <c r="E54" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>224</v>
+      </c>
+      <c r="B55" t="s">
+        <v>234</v>
+      </c>
+      <c r="C55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D55" s="3">
+        <v>41</v>
+      </c>
+      <c r="E55" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>224</v>
+      </c>
+      <c r="B56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C56" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56" s="3">
+        <v>42</v>
+      </c>
+      <c r="E56" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>224</v>
+      </c>
+      <c r="B57" t="s">
+        <v>236</v>
+      </c>
+      <c r="C57" t="s">
+        <v>225</v>
+      </c>
+      <c r="D57" s="3">
+        <v>43</v>
+      </c>
+      <c r="E57" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>224</v>
+      </c>
+      <c r="B58" t="s">
+        <v>237</v>
+      </c>
+      <c r="C58" t="s">
+        <v>225</v>
+      </c>
+      <c r="D58" s="3">
+        <v>44</v>
+      </c>
+      <c r="E58" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>224</v>
+      </c>
+      <c r="B59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" t="s">
+        <v>225</v>
+      </c>
+      <c r="D59" s="3">
+        <v>45</v>
+      </c>
+      <c r="E59" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>224</v>
+      </c>
+      <c r="B60" t="s">
+        <v>239</v>
+      </c>
+      <c r="C60" t="s">
+        <v>225</v>
+      </c>
+      <c r="D60" s="3">
+        <v>46</v>
+      </c>
+      <c r="E60" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>224</v>
+      </c>
+      <c r="B61" t="s">
+        <v>240</v>
+      </c>
+      <c r="C61" t="s">
+        <v>225</v>
+      </c>
+      <c r="D61" s="3">
+        <v>47</v>
+      </c>
+      <c r="E61" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>224</v>
+      </c>
+      <c r="B62" t="s">
+        <v>241</v>
+      </c>
+      <c r="C62" t="s">
+        <v>225</v>
+      </c>
+      <c r="D62" s="3">
+        <v>48</v>
+      </c>
+      <c r="E62" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>224</v>
+      </c>
+      <c r="B63" t="s">
+        <v>242</v>
+      </c>
+      <c r="C63" t="s">
+        <v>225</v>
+      </c>
+      <c r="D63" s="3">
+        <v>49</v>
+      </c>
+      <c r="E63" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>224</v>
+      </c>
+      <c r="B64" t="s">
+        <v>243</v>
+      </c>
+      <c r="C64" t="s">
+        <v>225</v>
+      </c>
+      <c r="D64" s="3">
+        <v>50</v>
+      </c>
+      <c r="E64" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" t="s">
+        <v>244</v>
+      </c>
+      <c r="C65" t="s">
+        <v>225</v>
+      </c>
+      <c r="D65" s="3">
+        <v>51</v>
+      </c>
+      <c r="E65" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>224</v>
+      </c>
+      <c r="B66" t="s">
+        <v>245</v>
+      </c>
+      <c r="C66" t="s">
+        <v>225</v>
+      </c>
+      <c r="D66" s="3">
+        <v>52</v>
+      </c>
+      <c r="E66" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>224</v>
+      </c>
+      <c r="B67" t="s">
+        <v>246</v>
+      </c>
+      <c r="C67" t="s">
+        <v>225</v>
+      </c>
+      <c r="D67" s="3">
+        <v>53</v>
+      </c>
+      <c r="E67" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>224</v>
+      </c>
+      <c r="B68" t="s">
+        <v>247</v>
+      </c>
+      <c r="C68" t="s">
+        <v>225</v>
+      </c>
+      <c r="D68" s="3">
+        <v>54</v>
+      </c>
+      <c r="E68" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>224</v>
+      </c>
+      <c r="B69" t="s">
+        <v>248</v>
+      </c>
+      <c r="C69" t="s">
+        <v>225</v>
+      </c>
+      <c r="D69" s="3">
+        <v>55</v>
+      </c>
+      <c r="E69" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>224</v>
+      </c>
+      <c r="B70" t="s">
+        <v>249</v>
+      </c>
+      <c r="C70" t="s">
+        <v>225</v>
+      </c>
+      <c r="D70" s="3">
+        <v>56</v>
+      </c>
+      <c r="E70" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>224</v>
+      </c>
+      <c r="B71" t="s">
+        <v>250</v>
+      </c>
+      <c r="C71" t="s">
+        <v>225</v>
+      </c>
+      <c r="D71" s="3">
+        <v>57</v>
+      </c>
+      <c r="E71" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>224</v>
+      </c>
+      <c r="B72" t="s">
+        <v>251</v>
+      </c>
+      <c r="C72" t="s">
+        <v>225</v>
+      </c>
+      <c r="D72" s="3">
+        <v>58</v>
+      </c>
+      <c r="E72" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>224</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" t="s">
+        <v>225</v>
+      </c>
+      <c r="D73" s="3">
+        <v>59</v>
+      </c>
+      <c r="E73" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>224</v>
+      </c>
+      <c r="B74" t="s">
+        <v>252</v>
+      </c>
+      <c r="C74" t="s">
+        <v>225</v>
+      </c>
+      <c r="D74" s="3">
+        <v>60</v>
+      </c>
+      <c r="E74" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>224</v>
+      </c>
+      <c r="B75" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" t="s">
+        <v>225</v>
+      </c>
+      <c r="D75" s="3">
+        <v>61</v>
+      </c>
+      <c r="E75" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>224</v>
+      </c>
+      <c r="B77" t="s">
+        <v>254</v>
+      </c>
+      <c r="C77" t="s">
+        <v>253</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>224</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" t="s">
+        <v>253</v>
+      </c>
+      <c r="D78" s="3">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>224</v>
+      </c>
+      <c r="B79" t="s">
+        <v>255</v>
+      </c>
+      <c r="C79" t="s">
+        <v>253</v>
+      </c>
+      <c r="D79" s="3">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>224</v>
+      </c>
+      <c r="B80" t="s">
+        <v>256</v>
+      </c>
+      <c r="C80" t="s">
+        <v>253</v>
+      </c>
+      <c r="D80" s="3">
+        <v>4</v>
+      </c>
+      <c r="E80" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>224</v>
+      </c>
+      <c r="B81" t="s">
+        <v>257</v>
+      </c>
+      <c r="C81" t="s">
+        <v>253</v>
+      </c>
+      <c r="D81" s="3">
+        <v>5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>224</v>
+      </c>
+      <c r="B82" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" t="s">
+        <v>253</v>
+      </c>
+      <c r="D82" s="3">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>224</v>
+      </c>
+      <c r="B83" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" t="s">
+        <v>253</v>
+      </c>
+      <c r="D83" s="3">
+        <v>7</v>
+      </c>
+      <c r="E83" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>224</v>
+      </c>
+      <c r="B84" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" t="s">
+        <v>253</v>
+      </c>
+      <c r="D84" s="3">
+        <v>8</v>
+      </c>
+      <c r="E84" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>224</v>
+      </c>
+      <c r="B85" t="s">
+        <v>258</v>
+      </c>
+      <c r="C85" t="s">
+        <v>253</v>
+      </c>
+      <c r="D85" s="3">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>224</v>
+      </c>
+      <c r="B86" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" t="s">
+        <v>253</v>
+      </c>
+      <c r="D86" s="3">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>224</v>
+      </c>
+      <c r="B87" t="s">
+        <v>259</v>
+      </c>
+      <c r="C87" t="s">
+        <v>253</v>
+      </c>
+      <c r="D87" s="3">
+        <v>11</v>
+      </c>
+      <c r="E87" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>224</v>
+      </c>
+      <c r="B88" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" t="s">
+        <v>253</v>
+      </c>
+      <c r="D88" s="3">
+        <v>12</v>
+      </c>
+      <c r="E88" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>224</v>
+      </c>
+      <c r="B89" t="s">
+        <v>260</v>
+      </c>
+      <c r="C89" t="s">
+        <v>253</v>
+      </c>
+      <c r="D89" s="3">
+        <v>13</v>
+      </c>
+      <c r="E89" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>224</v>
+      </c>
+      <c r="B90" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90" t="s">
+        <v>253</v>
+      </c>
+      <c r="D90" s="3">
+        <v>14</v>
+      </c>
+      <c r="E90" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>224</v>
+      </c>
+      <c r="B91" t="s">
+        <v>261</v>
+      </c>
+      <c r="C91" t="s">
+        <v>253</v>
+      </c>
+      <c r="D91" s="3">
+        <v>15</v>
+      </c>
+      <c r="E91" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>224</v>
+      </c>
+      <c r="B92" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92" t="s">
+        <v>253</v>
+      </c>
+      <c r="D92" s="3">
+        <v>16</v>
+      </c>
+      <c r="E92" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>224</v>
+      </c>
+      <c r="B93" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" t="s">
+        <v>253</v>
+      </c>
+      <c r="D93" s="3">
+        <v>17</v>
+      </c>
+      <c r="E93" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>224</v>
+      </c>
+      <c r="B94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C94" t="s">
+        <v>253</v>
+      </c>
+      <c r="D94" s="3">
+        <v>18</v>
+      </c>
+      <c r="E94" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>224</v>
+      </c>
+      <c r="B95" t="s">
+        <v>263</v>
+      </c>
+      <c r="C95" t="s">
+        <v>253</v>
+      </c>
+      <c r="D95" s="3">
+        <v>19</v>
+      </c>
+      <c r="E95" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>224</v>
+      </c>
+      <c r="B96" t="s">
+        <v>264</v>
+      </c>
+      <c r="C96" t="s">
+        <v>253</v>
+      </c>
+      <c r="D96" s="3">
+        <v>20</v>
+      </c>
+      <c r="E96" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>224</v>
+      </c>
+      <c r="B97" t="s">
+        <v>265</v>
+      </c>
+      <c r="C97" t="s">
+        <v>253</v>
+      </c>
+      <c r="D97" s="3">
+        <v>21</v>
+      </c>
+      <c r="E97" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>224</v>
+      </c>
+      <c r="B98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" t="s">
+        <v>253</v>
+      </c>
+      <c r="D98" s="3">
+        <v>22</v>
+      </c>
+      <c r="E98" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>224</v>
+      </c>
+      <c r="B99" t="s">
+        <v>266</v>
+      </c>
+      <c r="C99" t="s">
+        <v>253</v>
+      </c>
+      <c r="D99" s="3">
+        <v>23</v>
+      </c>
+      <c r="E99" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>224</v>
+      </c>
+      <c r="B100" t="s">
+        <v>267</v>
+      </c>
+      <c r="C100" t="s">
+        <v>253</v>
+      </c>
+      <c r="D100" s="3">
+        <v>24</v>
+      </c>
+      <c r="E100" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>224</v>
+      </c>
+      <c r="B101" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" t="s">
+        <v>253</v>
+      </c>
+      <c r="D101" s="3">
+        <v>25</v>
+      </c>
+      <c r="E101" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>224</v>
+      </c>
+      <c r="B102" t="s">
+        <v>269</v>
+      </c>
+      <c r="C102" t="s">
+        <v>253</v>
+      </c>
+      <c r="D102" s="3">
+        <v>26</v>
+      </c>
+      <c r="E102" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>224</v>
+      </c>
+      <c r="B103" t="s">
+        <v>83</v>
+      </c>
+      <c r="C103" t="s">
+        <v>253</v>
+      </c>
+      <c r="D103" s="3">
+        <v>27</v>
+      </c>
+      <c r="E103" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>224</v>
+      </c>
+      <c r="B104" t="s">
+        <v>268</v>
+      </c>
+      <c r="C104" t="s">
+        <v>253</v>
+      </c>
+      <c r="D104" s="3">
+        <v>28</v>
+      </c>
+      <c r="E104" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>224</v>
+      </c>
+      <c r="B105" t="s">
+        <v>270</v>
+      </c>
+      <c r="C105" t="s">
+        <v>253</v>
+      </c>
+      <c r="D105" s="3">
+        <v>29</v>
+      </c>
+      <c r="E105" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>224</v>
+      </c>
+      <c r="B106" t="s">
+        <v>271</v>
+      </c>
+      <c r="C106" t="s">
+        <v>253</v>
+      </c>
+      <c r="D106" s="3">
+        <v>30</v>
+      </c>
+      <c r="E106" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>224</v>
+      </c>
+      <c r="B107" t="s">
+        <v>272</v>
+      </c>
+      <c r="C107" t="s">
+        <v>253</v>
+      </c>
+      <c r="D107" s="3">
+        <v>31</v>
+      </c>
+      <c r="E107" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
